--- a/dl_top_and_worst_df.xlsx
+++ b/dl_top_and_worst_df.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dan's Projects\U of T\Data Analytics\Project01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dan's Projects\U of T\Data Analytics\Project01\Project_One_Group_C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCAF05E-D8C3-424A-9F4B-6F6478F82D92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648B7AB2-615E-4E17-A893-9ABB8ACE5761}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1813,7 +1813,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[top_and_worst_df.xlsx]Sheet6!PivotTable4</c:name>
+    <c:name>[dl_top_and_worst_df.xlsx]Sheet6!PivotTable4</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -5464,7 +5464,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$4</c15:sqref>
@@ -5493,7 +5493,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$H$1</c15:sqref>
@@ -5529,7 +5529,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$4:$H$4</c15:sqref>
@@ -5564,7 +5564,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-5D4B-4ADB-BEDE-03530C5FB978}"/>
                   </c:ext>
@@ -5577,7 +5577,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$5</c15:sqref>
@@ -5606,7 +5606,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$H$1</c15:sqref>
@@ -5642,7 +5642,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$5:$H$5</c15:sqref>
@@ -5677,7 +5677,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-5D4B-4ADB-BEDE-03530C5FB978}"/>
                   </c:ext>
@@ -5690,7 +5690,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$6</c15:sqref>
@@ -5719,7 +5719,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$H$1</c15:sqref>
@@ -5755,7 +5755,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$6:$H$6</c15:sqref>
@@ -5790,7 +5790,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-5D4B-4ADB-BEDE-03530C5FB978}"/>
                   </c:ext>
@@ -5803,7 +5803,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$9</c15:sqref>
@@ -5834,7 +5834,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$H$1</c15:sqref>
@@ -5870,7 +5870,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$9:$H$9</c15:sqref>
@@ -5905,7 +5905,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-5D4B-4ADB-BEDE-03530C5FB978}"/>
                   </c:ext>
@@ -5918,7 +5918,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$12</c15:sqref>
@@ -5949,7 +5949,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$H$1</c15:sqref>
@@ -5985,7 +5985,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$12:$H$12</c15:sqref>
@@ -6020,7 +6020,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-5D4B-4ADB-BEDE-03530C5FB978}"/>
                   </c:ext>
@@ -6033,7 +6033,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$15</c15:sqref>
@@ -6065,7 +6065,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$H$1</c15:sqref>
@@ -6101,7 +6101,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$15:$H$15</c15:sqref>
@@ -6136,7 +6136,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-5D4B-4ADB-BEDE-03530C5FB978}"/>
                   </c:ext>
@@ -6149,7 +6149,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$17</c15:sqref>
@@ -6181,7 +6181,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$H$1</c15:sqref>
@@ -6217,7 +6217,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$17:$H$17</c15:sqref>
@@ -6252,7 +6252,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-5D4B-4ADB-BEDE-03530C5FB978}"/>
                   </c:ext>
@@ -6265,7 +6265,7 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$19</c15:sqref>
@@ -6296,7 +6296,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$H$1</c15:sqref>
@@ -6332,7 +6332,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$19:$H$19</c15:sqref>
@@ -6367,7 +6367,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000012-5D4B-4ADB-BEDE-03530C5FB978}"/>
                   </c:ext>
@@ -6380,7 +6380,7 @@
                 <c:order val="19"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$20</c15:sqref>
@@ -6411,7 +6411,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$H$1</c15:sqref>
@@ -6447,7 +6447,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$20:$H$20</c15:sqref>
@@ -6482,7 +6482,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000013-5D4B-4ADB-BEDE-03530C5FB978}"/>
                   </c:ext>
@@ -6495,7 +6495,7 @@
                 <c:order val="20"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$21</c15:sqref>
@@ -6526,7 +6526,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$H$1</c15:sqref>
@@ -6562,7 +6562,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$21:$H$21</c15:sqref>
@@ -6597,7 +6597,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000014-5D4B-4ADB-BEDE-03530C5FB978}"/>
                   </c:ext>
@@ -6813,13 +6813,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -6827,13 +6833,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Best vs.</a:t>
+              <a:t>Best vs. Worst 5 Occupation </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Worst 5 Occupation </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6850,13 +6851,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -6887,13 +6894,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -6992,13 +7005,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7097,7 +7116,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -7105,7 +7124,13 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7204,7 +7229,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -7212,7 +7237,13 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7311,7 +7342,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -7319,7 +7350,13 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7418,7 +7455,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
@@ -7426,7 +7463,13 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7525,7 +7568,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="80000"/>
@@ -7534,7 +7577,13 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7633,7 +7682,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="80000"/>
@@ -7642,7 +7691,13 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7741,7 +7796,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="80000"/>
@@ -7750,7 +7805,13 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7849,7 +7910,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="80000"/>
@@ -7858,7 +7919,13 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7977,13 +8044,19 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="35000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
@@ -8086,7 +8159,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$4</c15:sqref>
@@ -8102,20 +8175,26 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent4"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="35000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$J$1</c15:sqref>
@@ -8157,7 +8236,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$4:$J$4</c15:sqref>
@@ -8198,7 +8277,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-D911-4EDA-BF05-77B786554B1C}"/>
                   </c:ext>
@@ -8211,7 +8290,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$5</c15:sqref>
@@ -8227,20 +8306,26 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent5"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="35000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$J$1</c15:sqref>
@@ -8282,7 +8367,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$5:$J$5</c15:sqref>
@@ -8323,7 +8408,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-D911-4EDA-BF05-77B786554B1C}"/>
                   </c:ext>
@@ -8336,7 +8421,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$6</c15:sqref>
@@ -8352,20 +8437,26 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent6"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="35000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$J$1</c15:sqref>
@@ -8407,7 +8498,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$6:$J$6</c15:sqref>
@@ -8448,7 +8539,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-D911-4EDA-BF05-77B786554B1C}"/>
                   </c:ext>
@@ -8461,7 +8552,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$9</c15:sqref>
@@ -8477,7 +8568,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent3">
                         <a:lumMod val="60000"/>
@@ -8485,14 +8576,20 @@
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="35000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$J$1</c15:sqref>
@@ -8534,7 +8631,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$9:$J$9</c15:sqref>
@@ -8575,7 +8672,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-D911-4EDA-BF05-77B786554B1C}"/>
                   </c:ext>
@@ -8588,7 +8685,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$12</c15:sqref>
@@ -8604,7 +8701,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent6">
                         <a:lumMod val="60000"/>
@@ -8612,14 +8709,20 @@
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="35000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$J$1</c15:sqref>
@@ -8661,7 +8764,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$12:$J$12</c15:sqref>
@@ -8702,7 +8805,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-D911-4EDA-BF05-77B786554B1C}"/>
                   </c:ext>
@@ -8715,7 +8818,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$15</c15:sqref>
@@ -8731,7 +8834,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent3">
                         <a:lumMod val="80000"/>
@@ -8740,14 +8843,20 @@
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="35000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$J$1</c15:sqref>
@@ -8789,7 +8898,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$15:$J$15</c15:sqref>
@@ -8830,7 +8939,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-D911-4EDA-BF05-77B786554B1C}"/>
                   </c:ext>
@@ -8843,7 +8952,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$17</c15:sqref>
@@ -8859,7 +8968,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent5">
                         <a:lumMod val="80000"/>
@@ -8868,14 +8977,20 @@
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="35000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$J$1</c15:sqref>
@@ -8917,7 +9032,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$17:$J$17</c15:sqref>
@@ -8958,7 +9073,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-D911-4EDA-BF05-77B786554B1C}"/>
                   </c:ext>
@@ -8971,7 +9086,7 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$19</c15:sqref>
@@ -8987,7 +9102,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent1">
                         <a:lumMod val="80000"/>
@@ -8995,14 +9110,20 @@
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="35000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$J$1</c15:sqref>
@@ -9044,7 +9165,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$19:$J$19</c15:sqref>
@@ -9085,7 +9206,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-D911-4EDA-BF05-77B786554B1C}"/>
                   </c:ext>
@@ -9098,7 +9219,7 @@
                 <c:order val="19"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$20</c15:sqref>
@@ -9114,7 +9235,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent2">
                         <a:lumMod val="80000"/>
@@ -9122,14 +9243,20 @@
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="35000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$J$1</c15:sqref>
@@ -9171,7 +9298,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$20:$J$20</c15:sqref>
@@ -9212,7 +9339,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000012-D911-4EDA-BF05-77B786554B1C}"/>
                   </c:ext>
@@ -9225,7 +9352,7 @@
                 <c:order val="20"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$A$21</c15:sqref>
@@ -9241,7 +9368,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent3">
                         <a:lumMod val="80000"/>
@@ -9249,14 +9376,20 @@
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="35000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$1:$J$1</c15:sqref>
@@ -9298,7 +9431,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$21:$J$21</c15:sqref>
@@ -9339,7 +9472,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000013-D911-4EDA-BF05-77B786554B1C}"/>
                   </c:ext>
@@ -9364,9 +9497,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -9380,9 +9513,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -9411,9 +9543,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -9439,9 +9571,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -9481,9 +9612,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -9507,17 +9637,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -11243,35 +11384,33 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11279,26 +11418,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -11307,9 +11454,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -11328,14 +11474,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -11344,45 +11482,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -11394,31 +11522,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -11436,21 +11562,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -11460,20 +11583,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -11487,14 +11610,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -11508,9 +11631,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11524,12 +11646,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -11541,9 +11657,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11558,14 +11674,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -11577,14 +11692,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -11596,14 +11711,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -11612,14 +11726,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -11627,7 +11740,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -11640,11 +11753,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -11652,14 +11775,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11671,12 +11794,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -11692,7 +11822,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -11701,9 +11830,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -11713,7 +11841,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11721,9 +11849,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -11734,9 +11862,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -11748,12 +11875,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -12594,7 +12715,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF70A6C-2D12-441A-8571-2F0E310AC078}" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF70A6C-2D12-441A-8571-2F0E310AC078}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:V10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">

--- a/dl_top_and_worst_df.xlsx
+++ b/dl_top_and_worst_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dan's Projects\U of T\Data Analytics\Project01\Project_One_Group_C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648B7AB2-615E-4E17-A893-9ABB8ACE5761}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5A3B4D-AFF8-4A02-8719-BA1F4BA232FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="6" r:id="rId1"/>
@@ -6833,7 +6833,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Best vs. Worst 5 Occupation </a:t>
+              <a:t>Best vs. Worst 5 Occupations Projection </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9489,6 +9489,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9553,6 +9606,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>employment</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> by thousands</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13427,8 +13538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358D2097-003B-492E-BAC7-CC20AD9EB19A}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
